--- a/hosted_files/DataManagementLibrary_ORCA_DataEntrySpreadsheet.xlsx
+++ b/hosted_files/DataManagementLibrary_ORCA_DataEntrySpreadsheet.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melinda\Google Drive\UniversalFolder\Data Management\DataManagementWithLornaJane\DataManagementLibrary\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="156" windowWidth="17232" windowHeight="6912" tabRatio="781"/>
   </bookViews>
@@ -30,12 +25,12 @@
     <definedName name="Subcategories">Subcategories!$A$2:$A$21</definedName>
     <definedName name="TrainingKeywords">'TrainingKeywords-wasCoursesTab'!$A$2:$A$41</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="882">
   <si>
     <t>DOC_ID</t>
   </si>
@@ -44,9 +39,6 @@
   </si>
   <si>
     <t>Authors</t>
-  </si>
-  <si>
-    <t>Pages</t>
   </si>
   <si>
     <t>URL</t>
@@ -2184,9 +2176,6 @@
     <t>PM 10 BAM 1st Qtr 2015</t>
   </si>
   <si>
-    <t>Ex_Calibration_PM10_BAM1020.xls</t>
-  </si>
-  <si>
     <t>DML-Admin-Data Management Library</t>
   </si>
   <si>
@@ -2223,42 +2212,27 @@
     <t>Newkirk Met Audit 2014.xls</t>
   </si>
   <si>
-    <t>Ex_Met_Audit.xls</t>
-  </si>
-  <si>
     <t>Example met sensor audit form with example data</t>
   </si>
   <si>
-    <t>Ex_Ozone_Audit_form.xls</t>
-  </si>
-  <si>
     <t xml:space="preserve">Example excel spreadsheet that calculates and formats results of a multi-point (multiple concentrations) ozone audit </t>
   </si>
   <si>
     <t>CNEP Ozone Audit sheet.xls</t>
   </si>
   <si>
-    <t>Ex_Gaseous_NCore_Multipoint_Calibration.xls</t>
-  </si>
-  <si>
     <t>Very thorough example, with example data, of an excel calibration form, for gaseous pollutants including NOy-NO titration calculations, including calculated fields.</t>
   </si>
   <si>
     <t>Cherokee Nation NCore Multipoint First Quarter 2015.xls</t>
   </si>
   <si>
-    <t>Ex_Gas_PM10_PM25_NCore_Multipoint_Calibration.xls</t>
-  </si>
-  <si>
     <t>Very thorough example, with example data, of an excel calibration form, for continuous PM10, continuous PM2.5, and gaseous pollutants, with calculated fields.</t>
   </si>
   <si>
     <t>Cherokee Nation NCore Level I May 18-22 2015.xls</t>
   </si>
   <si>
-    <t>Ex_Calibration_PM10_BAM-1020_a.xls</t>
-  </si>
-  <si>
     <t>Example calibration form for a BAM-1020 with example data and calculated fields</t>
   </si>
   <si>
@@ -2287,9 +2261,6 @@
   </si>
   <si>
     <t>C:\Users\melinda\Google Drive\UniversalFolder\Data Management\DataManagementWithLornaJane\DataManagementLibrary\SOPs</t>
-  </si>
-  <si>
-    <t>BAM 1st Qtr 2015.xls</t>
   </si>
   <si>
     <r>
@@ -2453,12 +2424,6 @@
     <t>Certification letter and attachments for the EPA AQS certification of data quality for the year.</t>
   </si>
   <si>
-    <t>Ex_AQS_DataCertificationPackage</t>
-  </si>
-  <si>
-    <t>Ex_MaintenanceCalibrationCertificationFirmwareSchedulesRev5.docx</t>
-  </si>
-  <si>
     <t>Maintenance, Calibration, Certification, Firmware Schedules rev5</t>
   </si>
   <si>
@@ -2492,9 +2457,6 @@
     <t>Station Operations-Logbook Entries Guide</t>
   </si>
   <si>
-    <t>Ex_StationOperationLogbookEntriesGuide.docx</t>
-  </si>
-  <si>
     <t>Guidance for station operators in Clark County, NV for do's and don'ts of logbook use.</t>
   </si>
   <si>
@@ -2510,15 +2472,9 @@
     <t>SS Met YYYY AN Template.xlsx</t>
   </si>
   <si>
-    <t>Met_QC.xlsx</t>
-  </si>
-  <si>
     <t>meteorolgical</t>
   </si>
   <si>
-    <t>Ex_PM25_2025_FR_Maintenance_Calibration_Log.xlsx</t>
-  </si>
-  <si>
     <t>SS PM25 2025 YYYY AN Template.xlsx</t>
   </si>
   <si>
@@ -2531,9 +2487,6 @@
     <t>Example form for verifying zero air generator is within specs of QA Handbook vol 2 validation templates for NAAQS-comparable data.</t>
   </si>
   <si>
-    <t>Ex_Zero_Air_Verification.xlsx</t>
-  </si>
-  <si>
     <t>zero air</t>
   </si>
   <si>
@@ -2552,53 +2505,230 @@
     <t>SS STEMP YYYY AN Template.xlsx</t>
   </si>
   <si>
-    <t>Ex_Temperature_Verification.xlsx</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sampling time residence calculation, dependent upon tube length, cross section, and flow rate. </t>
   </si>
   <si>
     <t>SS SLRT YYYY AN Template.xlsx</t>
   </si>
   <si>
-    <t>Ex_Sampling_Line_Residence_Calculation.xlsx</t>
-  </si>
-  <si>
     <t>Zero Air Generator Verification Guide.docx</t>
   </si>
   <si>
-    <t>Ex_Zero_Air_Generator_Verification_Guide.docx</t>
-  </si>
-  <si>
     <t>Volt Meter Verification Guide.docx</t>
   </si>
   <si>
-    <t>Ex_Volt_Meter_Verification_Guide.docx</t>
-  </si>
-  <si>
     <t>Instrument Acceptance Testing-Setup-Operating Guide.docx</t>
   </si>
   <si>
-    <t>Ex_Instrument_Acceptance_Testing-Setup-Operating Guide.docx</t>
-  </si>
-  <si>
     <t>Station Temperature Calibration Guide.docx</t>
   </si>
   <si>
-    <t>Ex_Shelter_Temperature_Calibration_Guide.docx</t>
-  </si>
-  <si>
     <t>Gravimetric Laboratory Filter Handling Guide.docx</t>
   </si>
   <si>
-    <t>Ex_Gravimetric_Laboratory_Filter_Handling_Guide.docx</t>
+    <t>Ex_SOP_Gaseous_Analyzers_Clark_county.pdf</t>
+  </si>
+  <si>
+    <t>300_Operation of Gaseous Analyzers_Rev 1_2015 04 23.pdf</t>
+  </si>
+  <si>
+    <t>Example SOP for gaseous analyzer operations from Clark county</t>
+  </si>
+  <si>
+    <t>Adobe</t>
+  </si>
+  <si>
+    <t>400_Particulate_Matter_Instruments_Rev1_2015-09-29.pdf</t>
+  </si>
+  <si>
+    <t>405 Gravimetric Laboratory Operations Final 2015 10 28.pdf</t>
+  </si>
+  <si>
+    <t>Ex_SOP_Gravimetric_Laboratory_Operations_Clark_county.pdf</t>
+  </si>
+  <si>
+    <t>Ex_SOP_PM_Instruments_Clark_county.pdf</t>
+  </si>
+  <si>
+    <t>500_Meteorological Equipment Final 2015 12 10.pdf</t>
+  </si>
+  <si>
+    <t>800 QA Audits and CARs 2015 09 08.pdf</t>
+  </si>
+  <si>
+    <t>Ex_SOP_QA_Audits_and_Corrective_Action_Clark_county.pdf</t>
+  </si>
+  <si>
+    <t>600_Standards Laboratory Operations Final 2015 07 23.pdf</t>
+  </si>
+  <si>
+    <t>Ex_SOP_Standards_Operations_Clark_county.pdf</t>
+  </si>
+  <si>
+    <t>pagess</t>
+  </si>
+  <si>
+    <t>MO 50.5 SN YYYY MM DD Rev3.xlsx</t>
+  </si>
+  <si>
+    <t>MO BAM 1020 SN yyyy mm dd.xlsx</t>
+  </si>
+  <si>
+    <t>SS Zero YYYY AN Template Rev2.xlsx</t>
+  </si>
+  <si>
+    <t>TAPI CO T300 SN yyyy mm dd.xlsx</t>
+  </si>
+  <si>
+    <t>TAPI NO2 T500 SN yyyy mm dd.xlsx</t>
+  </si>
+  <si>
+    <t>TAPI NOX T200UP SN yyyy mm dd.xlsx</t>
+  </si>
+  <si>
+    <t>TAPI O3 T400 SN yyyy mm dd.xlsx</t>
+  </si>
+  <si>
+    <t>TAPI SO2 T100 SN yyyy mm dd.xlsx</t>
+  </si>
+  <si>
+    <t>TS BAM 5014 SN yyyy mm dd Rev 1.xlsx</t>
+  </si>
+  <si>
+    <t>Ex_QC_Continuous_PM_Thermo_Beta_5014i_Clark_county.xlsx</t>
+  </si>
+  <si>
+    <t>TS FRM 2025 SN yyyy mm dd.xlsx</t>
+  </si>
+  <si>
+    <t>Ex_QC_Partisol_Dichot_2025i_Clark_county.xlsx</t>
+  </si>
+  <si>
+    <t>URG 3000 SN yyyy mm dd.xlsx</t>
+  </si>
+  <si>
+    <t>Ex_QC_URG-3000_Carbon_Sampler_Clark_county.xlsx</t>
+  </si>
+  <si>
+    <t>Ex_QC_SO2_Multipoint_Clark_county.xlsx</t>
+  </si>
+  <si>
+    <t>Ex_QC_O3_Multipoint_Clark_county.xlsx</t>
+  </si>
+  <si>
+    <t>Ex_QC_BAM1020_SinglePoint_Clark_county.xlsx</t>
+  </si>
+  <si>
+    <t>Ex_SOP_Meteorological_Equipment_Clark_county.pdf</t>
+  </si>
+  <si>
+    <t>Ex_QC_Sonic_Anemometer_Field_Clark_county.xlsx</t>
+  </si>
+  <si>
+    <t>Ex_QC_Zero_Gas_Verification_Clark_county.xlsx</t>
+  </si>
+  <si>
+    <t>Ex_QC_CO_Multipoint_Clark_county.xlsx</t>
+  </si>
+  <si>
+    <t>Ex_QC_NO2_Multipoint_Clark_county.xlsx</t>
+  </si>
+  <si>
+    <t>Ex_Report_BAM1020_Data_Validation_Checklist.xls</t>
+  </si>
+  <si>
+    <t>Melinda</t>
+  </si>
+  <si>
+    <t>Ex_SOP_Wind_Speed_Sensor</t>
+  </si>
+  <si>
+    <t>Ex_Admin_Sample_Contract.docx</t>
+  </si>
+  <si>
+    <t>Ex_Report_Precipitation_Calibration</t>
+  </si>
+  <si>
+    <t>Ex_Admin_DM_Flowchart.pdf</t>
+  </si>
+  <si>
+    <t>Ex_Admin_DM_Flowchart.xlsx</t>
+  </si>
+  <si>
+    <t>Ex_Equipment_MaintenanceCalibrationCertificationFirmwareSchedulesRev5.docx</t>
+  </si>
+  <si>
+    <t>Ex_Equipment_StationOperationLogbookEntriesGuide.docx</t>
+  </si>
+  <si>
+    <t>Ex_QC_Calibration_PM10_BAM-1020.xls</t>
+  </si>
+  <si>
+    <t>Ex_QC_Met_Audit.xls</t>
+  </si>
+  <si>
+    <t>Ex_QC_Met.xlsx</t>
+  </si>
+  <si>
+    <t>Ex_QC_Ozone_Audit_form.xls</t>
+  </si>
+  <si>
+    <t>Ex_QC_Gaseous_NCore_Multipoint_Calibration.xls</t>
+  </si>
+  <si>
+    <t>Ex_QC_Gas_PM10_PM25_NCore_Multipoint_Calibration.xls</t>
+  </si>
+  <si>
+    <t>Ex_QC_PM25_2025_FR_Maintenance_Calibration_Log.xlsx</t>
+  </si>
+  <si>
+    <t>Ex_QC_Sampling_Line_Residence_Calculation.xlsx</t>
+  </si>
+  <si>
+    <t>Ex_QC_Zero_Air_Verification.xlsx</t>
+  </si>
+  <si>
+    <t>Ex_QC_Temperature_Verification.xlsx</t>
+  </si>
+  <si>
+    <t>Ex_QC_NOX_Multipoint_QC_Clark_county.xlsx</t>
+  </si>
+  <si>
+    <t>Ex_Report_AQS_DataCertificationPackage</t>
+  </si>
+  <si>
+    <t>Ex_Report_Cherokee-ITEC_QuarterlyReport.doc</t>
+  </si>
+  <si>
+    <t>Ex_Site_EPA_Example_Site_Form.doc</t>
+  </si>
+  <si>
+    <t>Ex_Site_RoutineSiteCheckList.xlsx</t>
+  </si>
+  <si>
+    <t>Ex_SOP_Gravimetric_Laboratory_Filter_Handling_Guide.docx</t>
+  </si>
+  <si>
+    <t>Ex_SOP_Instrument_Acceptance_Testing-Setup-Operating Guide.docx</t>
+  </si>
+  <si>
+    <t>Ex_SOP_Shelter_Temperature_Calibration_Guide.docx</t>
+  </si>
+  <si>
+    <t>Ex_SOP_Volt_Meter_Verification_Guide.docx</t>
+  </si>
+  <si>
+    <t>Ex_SOP_Zero_Air_Generator_Verification_Guide.docx</t>
+  </si>
+  <si>
+    <t>Ex_Radiation_Files_U-238_&amp;_Th-232_Decay Chain Summary.doc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2646,6 +2776,14 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2721,7 +2859,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2753,6 +2891,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2777,15 +2917,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:N24" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:N50" totalsRowShown="0">
+  <autoFilter ref="A1:N50"/>
+  <sortState ref="A2:N49">
+    <sortCondition ref="A1:A49"/>
+  </sortState>
   <tableColumns count="14">
     <tableColumn id="2" name="FileName"/>
     <tableColumn id="24" name="OriginalFileName"/>
+    <tableColumn id="3" name="pagess"/>
     <tableColumn id="4" name="Description"/>
     <tableColumn id="10" name="Authors"/>
     <tableColumn id="11" name="Date_Published"/>
     <tableColumn id="12" name="ResourceType"/>
-    <tableColumn id="13" name="Pages"/>
     <tableColumn id="17" name="PATH(mrb's)"/>
     <tableColumn id="18" name="Keyword1"/>
     <tableColumn id="19" name="Keyword2"/>
@@ -2841,7 +2985,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2876,7 +3020,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3085,24 +3229,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y24"/>
+  <dimension ref="A1:Y50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="59.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59.21875" customWidth="1"/>
-    <col min="3" max="3" width="38.5546875" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="4" max="4" width="38.5546875" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.88671875" customWidth="1"/>
     <col min="10" max="10" width="12.109375" customWidth="1"/>
     <col min="11" max="11" width="13.21875" customWidth="1"/>
@@ -3123,1071 +3264,1371 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C1" t="s">
-        <v>652</v>
+        <v>829</v>
       </c>
       <c r="D1" t="s">
+        <v>651</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>678</v>
+      </c>
+      <c r="G1" t="s">
         <v>679</v>
       </c>
-      <c r="F1" t="s">
-        <v>680</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
       <c r="H1" t="s">
+        <v>747</v>
+      </c>
+      <c r="I1" t="s">
+        <v>751</v>
+      </c>
+      <c r="J1" t="s">
+        <v>750</v>
+      </c>
+      <c r="K1" t="s">
+        <v>752</v>
+      </c>
+      <c r="L1" t="s">
+        <v>753</v>
+      </c>
+      <c r="M1" t="s">
+        <v>754</v>
+      </c>
+      <c r="N1" t="s">
         <v>755</v>
-      </c>
-      <c r="I1" t="s">
-        <v>759</v>
-      </c>
-      <c r="J1" t="s">
-        <v>758</v>
-      </c>
-      <c r="K1" t="s">
-        <v>760</v>
-      </c>
-      <c r="L1" t="s">
-        <v>761</v>
-      </c>
-      <c r="M1" t="s">
-        <v>762</v>
-      </c>
-      <c r="N1" t="s">
-        <v>763</v>
       </c>
       <c r="O1" t="s">
         <v>0</v>
       </c>
       <c r="P1" t="s">
+        <v>674</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>676</v>
+      </c>
+      <c r="R1" t="s">
         <v>675</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>677</v>
       </c>
-      <c r="R1" t="s">
-        <v>676</v>
-      </c>
-      <c r="S1" t="s">
-        <v>678</v>
-      </c>
       <c r="T1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U1" t="s">
         <v>4</v>
       </c>
-      <c r="U1" t="s">
-        <v>5</v>
-      </c>
       <c r="V1" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="W1" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="X1" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="Y1" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>715</v>
-      </c>
-      <c r="B2" t="s">
-        <v>714</v>
-      </c>
-      <c r="C2" t="s">
-        <v>740</v>
-      </c>
-      <c r="D2" t="s">
-        <v>725</v>
-      </c>
-      <c r="E2">
-        <v>2015</v>
-      </c>
-      <c r="F2" t="s">
-        <v>674</v>
-      </c>
-      <c r="G2">
+        <v>857</v>
+      </c>
+      <c r="C2">
         <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>726</v>
-      </c>
-      <c r="I2" t="s">
-        <v>764</v>
-      </c>
-      <c r="J2" t="s">
-        <v>765</v>
-      </c>
-      <c r="K2" t="s">
-        <v>766</v>
-      </c>
-      <c r="L2" t="s">
-        <v>767</v>
-      </c>
-      <c r="M2" t="s">
-        <v>768</v>
-      </c>
-      <c r="N2" t="s">
-        <v>818</v>
       </c>
       <c r="O2">
         <v>4001</v>
       </c>
       <c r="P2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="V2" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="W2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>728</v>
-      </c>
-      <c r="B3" t="s">
-        <v>727</v>
-      </c>
-      <c r="C3" t="s">
-        <v>729</v>
-      </c>
-      <c r="D3" t="s">
-        <v>725</v>
-      </c>
-      <c r="E3">
-        <v>2014</v>
-      </c>
-      <c r="F3" t="s">
-        <v>674</v>
-      </c>
-      <c r="G3">
-        <v>8</v>
-      </c>
-      <c r="H3" t="s">
-        <v>726</v>
-      </c>
-      <c r="I3" t="s">
-        <v>768</v>
-      </c>
-      <c r="J3" t="s">
-        <v>770</v>
-      </c>
-      <c r="K3" t="s">
-        <v>767</v>
-      </c>
-      <c r="L3" t="s">
-        <v>769</v>
-      </c>
-      <c r="N3" t="s">
-        <v>818</v>
+        <v>858</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
       </c>
       <c r="O3">
         <v>4002</v>
       </c>
       <c r="P3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="V3" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="W3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>730</v>
-      </c>
-      <c r="B4" t="s">
-        <v>732</v>
-      </c>
-      <c r="C4" t="s">
-        <v>731</v>
-      </c>
-      <c r="D4" t="s">
-        <v>725</v>
-      </c>
-      <c r="E4">
-        <v>2016</v>
-      </c>
-      <c r="F4" t="s">
-        <v>674</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>726</v>
-      </c>
-      <c r="I4" t="s">
-        <v>767</v>
-      </c>
-      <c r="J4" t="s">
-        <v>771</v>
-      </c>
-      <c r="K4" t="s">
-        <v>770</v>
-      </c>
-      <c r="L4" t="s">
-        <v>768</v>
-      </c>
-      <c r="N4" t="s">
-        <v>818</v>
+        <v>855</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
       </c>
       <c r="O4">
         <v>4003</v>
       </c>
       <c r="P4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="V4" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="W4" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>733</v>
+        <v>859</v>
       </c>
       <c r="B5" t="s">
-        <v>735</v>
-      </c>
-      <c r="C5" t="s">
-        <v>734</v>
+        <v>782</v>
+      </c>
+      <c r="C5">
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>725</v>
-      </c>
-      <c r="E5">
+        <v>791</v>
+      </c>
+      <c r="E5" t="s">
+        <v>783</v>
+      </c>
+      <c r="F5">
         <v>2015</v>
       </c>
-      <c r="F5" t="s">
-        <v>674</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
+      <c r="G5" t="s">
+        <v>740</v>
       </c>
       <c r="H5" t="s">
-        <v>726</v>
+        <v>784</v>
       </c>
       <c r="I5" t="s">
-        <v>774</v>
+        <v>788</v>
       </c>
       <c r="J5" t="s">
-        <v>764</v>
+        <v>789</v>
       </c>
       <c r="K5" t="s">
-        <v>773</v>
+        <v>756</v>
       </c>
       <c r="L5" t="s">
-        <v>772</v>
+        <v>790</v>
       </c>
       <c r="M5" t="s">
         <v>767</v>
       </c>
       <c r="N5" t="s">
-        <v>818</v>
+        <v>766</v>
       </c>
       <c r="O5">
         <v>4004</v>
       </c>
       <c r="P5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R5" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="V5" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="W5" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>736</v>
+        <v>860</v>
       </c>
       <c r="B6" t="s">
-        <v>738</v>
-      </c>
-      <c r="C6" t="s">
-        <v>737</v>
+        <v>792</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>725</v>
-      </c>
-      <c r="E6">
+        <v>793</v>
+      </c>
+      <c r="E6" t="s">
+        <v>783</v>
+      </c>
+      <c r="F6">
         <v>2015</v>
       </c>
-      <c r="F6" t="s">
-        <v>674</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
+      <c r="G6" t="s">
+        <v>740</v>
       </c>
       <c r="H6" t="s">
-        <v>726</v>
+        <v>784</v>
       </c>
       <c r="I6" t="s">
-        <v>767</v>
+        <v>794</v>
       </c>
       <c r="J6" t="s">
-        <v>774</v>
+        <v>795</v>
       </c>
       <c r="K6" t="s">
-        <v>764</v>
-      </c>
-      <c r="L6" t="s">
-        <v>765</v>
-      </c>
-      <c r="M6" t="s">
-        <v>775</v>
-      </c>
-      <c r="N6" t="s">
-        <v>818</v>
+        <v>804</v>
       </c>
       <c r="O6">
         <v>4005</v>
       </c>
       <c r="P6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="V6" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="W6" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>846</v>
+      </c>
+      <c r="B7" t="s">
+        <v>831</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>783</v>
+      </c>
+      <c r="O7">
+        <v>4007</v>
+      </c>
+      <c r="P7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>28</v>
+      </c>
+      <c r="R7" t="s">
+        <v>661</v>
+      </c>
+      <c r="V7" t="s">
         <v>739</v>
       </c>
-      <c r="B7" t="s">
-        <v>750</v>
-      </c>
-      <c r="C7" t="s">
-        <v>740</v>
-      </c>
-      <c r="D7" t="s">
-        <v>725</v>
-      </c>
-      <c r="E7">
-        <v>2015</v>
-      </c>
-      <c r="F7" t="s">
-        <v>674</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
-        <v>726</v>
-      </c>
-      <c r="I7" t="s">
-        <v>767</v>
-      </c>
-      <c r="J7" t="s">
-        <v>765</v>
-      </c>
-      <c r="K7" t="s">
-        <v>764</v>
-      </c>
-      <c r="L7" t="s">
-        <v>766</v>
-      </c>
-      <c r="M7" t="s">
-        <v>818</v>
-      </c>
-      <c r="O7">
-        <v>4006</v>
-      </c>
-      <c r="P7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>29</v>
-      </c>
-      <c r="R7" t="s">
-        <v>662</v>
-      </c>
-      <c r="V7" t="s">
-        <v>720</v>
-      </c>
       <c r="W7" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>742</v>
+        <v>861</v>
       </c>
       <c r="B8" t="s">
-        <v>741</v>
-      </c>
-      <c r="C8" t="s">
-        <v>743</v>
+        <v>713</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>725</v>
-      </c>
-      <c r="E8">
+        <v>733</v>
+      </c>
+      <c r="E8" t="s">
+        <v>723</v>
+      </c>
+      <c r="F8">
         <v>2015</v>
       </c>
-      <c r="F8" t="s">
-        <v>747</v>
-      </c>
-      <c r="G8">
-        <v>9</v>
+      <c r="G8" t="s">
+        <v>673</v>
       </c>
       <c r="H8" t="s">
-        <v>749</v>
+        <v>724</v>
       </c>
       <c r="I8" t="s">
-        <v>776</v>
+        <v>756</v>
       </c>
       <c r="J8" t="s">
-        <v>777</v>
+        <v>757</v>
       </c>
       <c r="K8" t="s">
-        <v>778</v>
+        <v>758</v>
       </c>
       <c r="L8" t="s">
-        <v>779</v>
+        <v>759</v>
+      </c>
+      <c r="M8" t="s">
+        <v>760</v>
+      </c>
+      <c r="N8" t="s">
+        <v>804</v>
       </c>
       <c r="O8">
-        <v>4007</v>
+        <v>4008</v>
       </c>
       <c r="P8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R8" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="V8" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="W8" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>745</v>
+        <v>850</v>
       </c>
       <c r="B9" t="s">
-        <v>744</v>
-      </c>
-      <c r="C9" t="s">
-        <v>748</v>
-      </c>
-      <c r="D9" t="s">
-        <v>725</v>
-      </c>
-      <c r="E9">
-        <v>2015</v>
-      </c>
-      <c r="F9" t="s">
-        <v>747</v>
-      </c>
-      <c r="G9">
-        <v>4</v>
-      </c>
-      <c r="H9" t="s">
-        <v>749</v>
-      </c>
-      <c r="I9" t="s">
-        <v>776</v>
-      </c>
-      <c r="J9" t="s">
-        <v>780</v>
-      </c>
-      <c r="K9" t="s">
-        <v>781</v>
-      </c>
-      <c r="L9" t="s">
-        <v>782</v>
-      </c>
-      <c r="M9" t="s">
-        <v>818</v>
+        <v>833</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>783</v>
       </c>
       <c r="O9">
-        <v>4008</v>
+        <v>4009</v>
       </c>
       <c r="P9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R9" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="V9" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="W9" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" ht="18" x14ac:dyDescent="0.4">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>752</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>751</v>
-      </c>
-      <c r="C10" t="s">
-        <v>753</v>
-      </c>
-      <c r="D10" t="s">
-        <v>725</v>
-      </c>
-      <c r="E10">
-        <v>2010</v>
-      </c>
-      <c r="F10" t="s">
-        <v>747</v>
-      </c>
-      <c r="G10">
-        <v>14</v>
-      </c>
-      <c r="H10" t="s">
-        <v>749</v>
-      </c>
-      <c r="I10" t="s">
-        <v>776</v>
-      </c>
-      <c r="J10" t="s">
-        <v>774</v>
-      </c>
-      <c r="K10" t="s">
-        <v>765</v>
-      </c>
-      <c r="L10" t="s">
-        <v>775</v>
-      </c>
-      <c r="M10" t="s">
-        <v>767</v>
-      </c>
-      <c r="N10" t="s">
-        <v>818</v>
-      </c>
-      <c r="O10">
-        <v>4009</v>
-      </c>
-      <c r="P10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>29</v>
-      </c>
-      <c r="R10" t="s">
-        <v>662</v>
-      </c>
-      <c r="V10" t="s">
-        <v>746</v>
-      </c>
-      <c r="W10" t="s">
-        <v>683</v>
+        <v>839</v>
+      </c>
+      <c r="B10" t="s">
+        <v>838</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10" t="s">
+        <v>783</v>
+      </c>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10" s="20">
+        <v>4010</v>
+      </c>
+      <c r="P10" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="R10" s="20" t="s">
+        <v>661</v>
+      </c>
+      <c r="V10" s="20" t="s">
+        <v>739</v>
+      </c>
+      <c r="W10" s="20" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>866</v>
+      </c>
+      <c r="B11" t="s">
+        <v>732</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>731</v>
+      </c>
+      <c r="E11" t="s">
+        <v>723</v>
+      </c>
+      <c r="F11">
+        <v>2015</v>
+      </c>
+      <c r="G11" t="s">
+        <v>673</v>
+      </c>
+      <c r="H11" t="s">
+        <v>724</v>
+      </c>
+      <c r="I11" t="s">
+        <v>759</v>
+      </c>
+      <c r="J11" t="s">
+        <v>766</v>
+      </c>
+      <c r="K11" t="s">
         <v>756</v>
       </c>
-      <c r="B11" t="s">
-        <v>754</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="L11" t="s">
         <v>757</v>
       </c>
-      <c r="D11" t="s">
-        <v>725</v>
-      </c>
-      <c r="E11">
-        <v>2015</v>
-      </c>
-      <c r="F11" t="s">
-        <v>747</v>
-      </c>
-      <c r="G11">
-        <v>11</v>
-      </c>
-      <c r="H11" t="s">
-        <v>749</v>
-      </c>
-      <c r="I11" t="s">
-        <v>776</v>
-      </c>
-      <c r="J11" t="s">
-        <v>774</v>
-      </c>
-      <c r="K11" t="s">
-        <v>770</v>
-      </c>
-      <c r="L11" t="s">
-        <v>783</v>
-      </c>
       <c r="M11" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="N11" t="s">
-        <v>818</v>
+        <v>804</v>
       </c>
       <c r="O11">
-        <v>4010</v>
+        <v>4011</v>
       </c>
       <c r="P11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R11" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="V11" t="s">
-        <v>746</v>
+        <v>722</v>
       </c>
       <c r="W11" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>790</v>
+        <v>865</v>
       </c>
       <c r="B12" t="s">
-        <v>788</v>
-      </c>
-      <c r="C12" t="s">
-        <v>789</v>
-      </c>
-      <c r="G12">
-        <v>18</v>
+        <v>730</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>729</v>
+      </c>
+      <c r="E12" t="s">
+        <v>723</v>
+      </c>
+      <c r="F12">
+        <v>2015</v>
+      </c>
+      <c r="G12" t="s">
+        <v>673</v>
       </c>
       <c r="H12" t="s">
-        <v>795</v>
+        <v>724</v>
       </c>
       <c r="I12" t="s">
-        <v>777</v>
+        <v>766</v>
       </c>
       <c r="J12" t="s">
-        <v>796</v>
+        <v>756</v>
       </c>
       <c r="K12" t="s">
-        <v>797</v>
+        <v>765</v>
+      </c>
+      <c r="L12" t="s">
+        <v>764</v>
+      </c>
+      <c r="M12" t="s">
+        <v>759</v>
       </c>
       <c r="N12" t="s">
-        <v>818</v>
+        <v>804</v>
       </c>
       <c r="O12">
-        <v>4011</v>
+        <v>4012</v>
       </c>
       <c r="P12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R12" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="V12" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="W12" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>791</v>
+        <v>863</v>
       </c>
       <c r="B13" t="s">
-        <v>792</v>
-      </c>
-      <c r="C13" t="s">
-        <v>801</v>
+        <v>797</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>793</v>
-      </c>
-      <c r="E13">
+        <v>796</v>
+      </c>
+      <c r="E13" t="s">
+        <v>783</v>
+      </c>
+      <c r="F13">
         <v>2015</v>
       </c>
-      <c r="F13" t="s">
-        <v>747</v>
-      </c>
-      <c r="G13">
-        <v>25</v>
+      <c r="G13" t="s">
+        <v>673</v>
       </c>
       <c r="H13" t="s">
-        <v>794</v>
+        <v>724</v>
       </c>
       <c r="I13" t="s">
         <v>798</v>
       </c>
       <c r="J13" t="s">
-        <v>799</v>
+        <v>759</v>
       </c>
       <c r="K13" t="s">
-        <v>764</v>
-      </c>
-      <c r="L13" t="s">
-        <v>800</v>
-      </c>
-      <c r="M13" t="s">
-        <v>775</v>
-      </c>
-      <c r="N13" t="s">
-        <v>774</v>
+        <v>804</v>
       </c>
       <c r="O13">
-        <v>4012</v>
-      </c>
-      <c r="P13" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>29</v>
-      </c>
-      <c r="R13" t="s">
-        <v>662</v>
-      </c>
-      <c r="V13" t="s">
-        <v>722</v>
-      </c>
-      <c r="W13" t="s">
-        <v>683</v>
+        <v>4013</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>803</v>
+        <v>862</v>
       </c>
       <c r="B14" t="s">
-        <v>802</v>
-      </c>
-      <c r="C14" t="s">
+        <v>725</v>
+      </c>
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>726</v>
+      </c>
+      <c r="E14" t="s">
+        <v>723</v>
+      </c>
+      <c r="F14">
+        <v>2014</v>
+      </c>
+      <c r="G14" t="s">
+        <v>673</v>
+      </c>
+      <c r="H14" t="s">
+        <v>724</v>
+      </c>
+      <c r="I14" t="s">
+        <v>760</v>
+      </c>
+      <c r="J14" t="s">
+        <v>762</v>
+      </c>
+      <c r="K14" t="s">
+        <v>759</v>
+      </c>
+      <c r="L14" t="s">
+        <v>761</v>
+      </c>
+      <c r="N14" t="s">
         <v>804</v>
       </c>
-      <c r="D14" t="s">
-        <v>793</v>
-      </c>
-      <c r="E14">
-        <v>2015</v>
-      </c>
-      <c r="F14" t="s">
-        <v>747</v>
-      </c>
-      <c r="G14">
-        <v>8</v>
-      </c>
-      <c r="H14" t="s">
-        <v>794</v>
-      </c>
-      <c r="I14" t="s">
-        <v>805</v>
-      </c>
-      <c r="J14" t="s">
-        <v>806</v>
-      </c>
-      <c r="K14" t="s">
-        <v>818</v>
-      </c>
       <c r="O14">
-        <v>4013</v>
+        <v>4014</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>851</v>
+      </c>
+      <c r="B15" t="s">
+        <v>834</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>783</v>
+      </c>
+      <c r="O15">
+        <v>4015</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
+        <v>871</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>835</v>
+      </c>
+      <c r="C16" s="20">
+        <v>1</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20" t="s">
+        <v>783</v>
+      </c>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>845</v>
+      </c>
+      <c r="B17" t="s">
+        <v>836</v>
+      </c>
+      <c r="E17" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>864</v>
+      </c>
+      <c r="B18" t="s">
+        <v>728</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>727</v>
+      </c>
+      <c r="E18" t="s">
+        <v>723</v>
+      </c>
+      <c r="F18">
+        <v>2016</v>
+      </c>
+      <c r="G18" t="s">
+        <v>673</v>
+      </c>
+      <c r="H18" t="s">
+        <v>724</v>
+      </c>
+      <c r="I18" t="s">
+        <v>759</v>
+      </c>
+      <c r="J18" t="s">
+        <v>763</v>
+      </c>
+      <c r="K18" t="s">
+        <v>762</v>
+      </c>
+      <c r="L18" t="s">
+        <v>760</v>
+      </c>
+      <c r="N18" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>841</v>
+      </c>
+      <c r="B19" t="s">
+        <v>840</v>
+      </c>
+      <c r="E19" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>867</v>
+      </c>
+      <c r="B20" t="s">
+        <v>799</v>
+      </c>
+      <c r="C20">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>800</v>
+      </c>
+      <c r="E20" t="s">
+        <v>783</v>
+      </c>
+      <c r="F20">
+        <v>2015</v>
+      </c>
+      <c r="G20" t="s">
+        <v>673</v>
+      </c>
+      <c r="H20" t="s">
+        <v>724</v>
+      </c>
+      <c r="I20" t="s">
+        <v>756</v>
+      </c>
+      <c r="J20" t="s">
+        <v>767</v>
+      </c>
+      <c r="K20" t="s">
+        <v>806</v>
+      </c>
+      <c r="L20" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>868</v>
+      </c>
+      <c r="B21" t="s">
+        <v>810</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
         <v>809</v>
       </c>
-      <c r="B15" t="s">
+      <c r="E21" t="s">
+        <v>783</v>
+      </c>
+      <c r="F21">
+        <v>2017</v>
+      </c>
+      <c r="G21" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>844</v>
+      </c>
+      <c r="B22" t="s">
+        <v>837</v>
+      </c>
+      <c r="E22" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>848</v>
+      </c>
+      <c r="B23" t="s">
+        <v>830</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>870</v>
+      </c>
+      <c r="B24" t="s">
         <v>808</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
         <v>807</v>
       </c>
-      <c r="D15" t="s">
-        <v>793</v>
-      </c>
-      <c r="E15">
+      <c r="E24" t="s">
+        <v>783</v>
+      </c>
+      <c r="F24">
+        <v>2016</v>
+      </c>
+      <c r="G24" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>843</v>
+      </c>
+      <c r="B25" t="s">
+        <v>842</v>
+      </c>
+      <c r="E25" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>869</v>
+      </c>
+      <c r="B26" t="s">
+        <v>801</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>802</v>
+      </c>
+      <c r="E26" t="s">
+        <v>783</v>
+      </c>
+      <c r="F26">
         <v>2015</v>
       </c>
-      <c r="F15" t="s">
-        <v>674</v>
-      </c>
-      <c r="G15">
-        <v>6</v>
-      </c>
-      <c r="H15" t="s">
-        <v>726</v>
-      </c>
-      <c r="I15" t="s">
-        <v>810</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="G26" t="s">
+        <v>673</v>
+      </c>
+      <c r="H26" t="s">
+        <v>724</v>
+      </c>
+      <c r="I26" t="s">
+        <v>803</v>
+      </c>
+      <c r="J26" t="s">
+        <v>759</v>
+      </c>
+      <c r="K26" t="s">
+        <v>804</v>
+      </c>
+      <c r="L26" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>849</v>
+      </c>
+      <c r="B27" t="s">
+        <v>832</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>872</v>
+      </c>
+      <c r="B28" t="s">
+        <v>780</v>
+      </c>
+      <c r="C28">
+        <v>18</v>
+      </c>
+      <c r="D28" t="s">
+        <v>781</v>
+      </c>
+      <c r="H28" t="s">
+        <v>785</v>
+      </c>
+      <c r="I28" t="s">
+        <v>769</v>
+      </c>
+      <c r="J28" t="s">
+        <v>786</v>
+      </c>
+      <c r="K28" t="s">
+        <v>787</v>
+      </c>
+      <c r="N28" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>852</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>873</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>856</v>
+      </c>
+      <c r="C31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>874</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>875</v>
+      </c>
+      <c r="B33"/>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>816</v>
+      </c>
+      <c r="B34" t="s">
+        <v>817</v>
+      </c>
+      <c r="C34">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s">
+        <v>818</v>
+      </c>
+      <c r="E34" t="s">
+        <v>783</v>
+      </c>
+      <c r="F34">
+        <v>2016</v>
+      </c>
+      <c r="G34" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>876</v>
+      </c>
+      <c r="B35" t="s">
+        <v>815</v>
+      </c>
+      <c r="C35">
+        <v>10</v>
+      </c>
+      <c r="E35" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>822</v>
+      </c>
+      <c r="B36" t="s">
+        <v>821</v>
+      </c>
+      <c r="C36">
+        <v>11</v>
+      </c>
+      <c r="E36" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>748</v>
+      </c>
+      <c r="B37" t="s">
+        <v>746</v>
+      </c>
+      <c r="C37">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s">
+        <v>749</v>
+      </c>
+      <c r="E37" t="s">
+        <v>723</v>
+      </c>
+      <c r="F37">
+        <v>2015</v>
+      </c>
+      <c r="G37" t="s">
+        <v>740</v>
+      </c>
+      <c r="H37" t="s">
+        <v>742</v>
+      </c>
+      <c r="I37" t="s">
+        <v>768</v>
+      </c>
+      <c r="J37" t="s">
+        <v>766</v>
+      </c>
+      <c r="K37" t="s">
+        <v>762</v>
+      </c>
+      <c r="L37" t="s">
+        <v>775</v>
+      </c>
+      <c r="M37" t="s">
+        <v>761</v>
+      </c>
+      <c r="N37" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>877</v>
+      </c>
+      <c r="B38" t="s">
+        <v>813</v>
+      </c>
+      <c r="C38">
+        <v>21</v>
+      </c>
+      <c r="E38" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>738</v>
+      </c>
+      <c r="B39" t="s">
+        <v>737</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>741</v>
+      </c>
+      <c r="E39" t="s">
+        <v>723</v>
+      </c>
+      <c r="F39">
+        <v>2015</v>
+      </c>
+      <c r="G39" t="s">
+        <v>740</v>
+      </c>
+      <c r="H39" t="s">
+        <v>742</v>
+      </c>
+      <c r="I39" t="s">
+        <v>768</v>
+      </c>
+      <c r="J39" t="s">
+        <v>772</v>
+      </c>
+      <c r="K39" t="s">
+        <v>773</v>
+      </c>
+      <c r="L39" t="s">
+        <v>774</v>
+      </c>
+      <c r="M39" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="18" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>744</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>743</v>
+      </c>
+      <c r="C40">
+        <v>14</v>
+      </c>
+      <c r="D40" t="s">
+        <v>745</v>
+      </c>
+      <c r="E40" t="s">
+        <v>723</v>
+      </c>
+      <c r="F40">
+        <v>2010</v>
+      </c>
+      <c r="G40" t="s">
+        <v>740</v>
+      </c>
+      <c r="H40" t="s">
+        <v>742</v>
+      </c>
+      <c r="I40" t="s">
+        <v>768</v>
+      </c>
+      <c r="J40" t="s">
+        <v>766</v>
+      </c>
+      <c r="K40" t="s">
+        <v>757</v>
+      </c>
+      <c r="L40" t="s">
         <v>767</v>
       </c>
-      <c r="K15" t="s">
-        <v>818</v>
-      </c>
-      <c r="O15">
-        <v>4014</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="M40" t="s">
+        <v>759</v>
+      </c>
+      <c r="N40" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>847</v>
+      </c>
+      <c r="B41" t="s">
+        <v>824</v>
+      </c>
+      <c r="C41">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>823</v>
+      </c>
+      <c r="B42" t="s">
+        <v>820</v>
+      </c>
+      <c r="C42">
+        <v>12</v>
+      </c>
+      <c r="E42" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>826</v>
+      </c>
+      <c r="B43" t="s">
+        <v>825</v>
+      </c>
+      <c r="C43">
+        <v>15</v>
+      </c>
+      <c r="E43" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>735</v>
+      </c>
+      <c r="B44" t="s">
+        <v>734</v>
+      </c>
+      <c r="C44">
+        <v>9</v>
+      </c>
+      <c r="D44" t="s">
+        <v>736</v>
+      </c>
+      <c r="E44" t="s">
+        <v>723</v>
+      </c>
+      <c r="F44">
+        <v>2015</v>
+      </c>
+      <c r="G44" t="s">
+        <v>740</v>
+      </c>
+      <c r="H44" t="s">
+        <v>742</v>
+      </c>
+      <c r="I44" t="s">
+        <v>768</v>
+      </c>
+      <c r="J44" t="s">
+        <v>769</v>
+      </c>
+      <c r="K44" t="s">
+        <v>770</v>
+      </c>
+      <c r="L44" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>878</v>
+      </c>
+      <c r="B45" t="s">
+        <v>814</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+      <c r="E45" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>828</v>
+      </c>
+      <c r="B46" t="s">
+        <v>827</v>
+      </c>
+      <c r="C46">
+        <v>19</v>
+      </c>
+      <c r="E46" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>879</v>
+      </c>
+      <c r="B47" t="s">
+        <v>812</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="E47" t="s">
+        <v>783</v>
+      </c>
+      <c r="F47">
+        <v>2019</v>
+      </c>
+      <c r="G47" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>854</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>880</v>
+      </c>
+      <c r="B49" t="s">
         <v>811</v>
       </c>
-      <c r="B16" t="s">
-        <v>812</v>
-      </c>
-      <c r="C16" t="s">
-        <v>813</v>
-      </c>
-      <c r="D16" t="s">
-        <v>793</v>
-      </c>
-      <c r="E16">
-        <v>2015</v>
-      </c>
-      <c r="F16" t="s">
-        <v>674</v>
-      </c>
-      <c r="G16">
-        <v>15</v>
-      </c>
-      <c r="H16" t="s">
-        <v>726</v>
-      </c>
-      <c r="I16" t="s">
-        <v>764</v>
-      </c>
-      <c r="J16" t="s">
-        <v>775</v>
-      </c>
-      <c r="K16" t="s">
-        <v>820</v>
-      </c>
-      <c r="L16" t="s">
-        <v>818</v>
-      </c>
-      <c r="O16">
-        <v>4015</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>816</v>
-      </c>
-      <c r="B17" t="s">
-        <v>814</v>
-      </c>
-      <c r="C17" t="s">
-        <v>815</v>
-      </c>
-      <c r="D17" t="s">
-        <v>793</v>
-      </c>
-      <c r="E17">
-        <v>2015</v>
-      </c>
-      <c r="F17" t="s">
-        <v>674</v>
-      </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-      <c r="H17" t="s">
-        <v>726</v>
-      </c>
-      <c r="I17" t="s">
-        <v>817</v>
-      </c>
-      <c r="J17" t="s">
-        <v>767</v>
-      </c>
-      <c r="K17" t="s">
-        <v>818</v>
-      </c>
-      <c r="L17" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>823</v>
-      </c>
-      <c r="B18" t="s">
-        <v>822</v>
-      </c>
-      <c r="C18" t="s">
-        <v>821</v>
-      </c>
-      <c r="D18" t="s">
-        <v>793</v>
-      </c>
-      <c r="E18">
-        <v>2016</v>
-      </c>
-      <c r="F18" t="s">
-        <v>674</v>
-      </c>
-      <c r="G18">
+      <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="E49" t="s">
+        <v>783</v>
+      </c>
+      <c r="F49">
+        <v>2018</v>
+      </c>
+      <c r="G49" t="s">
+        <v>673</v>
+      </c>
+      <c r="H49" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>881</v>
+      </c>
+      <c r="C50">
         <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>826</v>
-      </c>
-      <c r="B19" t="s">
-        <v>825</v>
-      </c>
-      <c r="C19" t="s">
-        <v>824</v>
-      </c>
-      <c r="D19" t="s">
-        <v>793</v>
-      </c>
-      <c r="E19">
-        <v>2017</v>
-      </c>
-      <c r="F19" t="s">
-        <v>674</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>828</v>
-      </c>
-      <c r="B20" t="s">
-        <v>827</v>
-      </c>
-      <c r="E20">
-        <v>2018</v>
-      </c>
-      <c r="F20" t="s">
-        <v>674</v>
-      </c>
-      <c r="G20">
-        <v>4</v>
-      </c>
-      <c r="H20" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>830</v>
-      </c>
-      <c r="B21" t="s">
-        <v>829</v>
-      </c>
-      <c r="D21" t="s">
-        <v>793</v>
-      </c>
-      <c r="E21">
-        <v>2019</v>
-      </c>
-      <c r="F21" t="s">
-        <v>674</v>
-      </c>
-      <c r="G21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>832</v>
-      </c>
-      <c r="B22" t="s">
-        <v>831</v>
-      </c>
-      <c r="G22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>834</v>
-      </c>
-      <c r="B23" t="s">
-        <v>833</v>
-      </c>
-      <c r="G23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>836</v>
-      </c>
-      <c r="B24" t="s">
-        <v>835</v>
-      </c>
-      <c r="G24">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="10">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="URL field" prompt="Use only for webpages that can serve as a reference if needed" sqref="T2:T4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Description" prompt="Long text description of resource; up to 64K characters allowed but only 500 characters will display online" sqref="C2:C7"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Description" prompt="Long text description of resource; up to 64K characters allowed but only 500 characters will display online" sqref="D2:D6"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="http://www7dev.nau.edu/itep/main/orca/Downloads/DOCID_ORCA.pdf  WHERE DOCID is replaced with the DOCID value" sqref="U2:U4"/>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="Keywords" prompt="All keywords (terms/phrases) must be separated by commas; use any terms/phrases desired including course titles" sqref="V2:W11">
-      <formula1>TrainingKeywords</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P3">
       <formula1>Categories</formula1>
     </dataValidation>
@@ -4200,10 +4641,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S3">
       <formula1>Publishers</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3">
       <formula1>ResType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Keywords" prompt="All keywords (terms/phrases) must be separated by commas; use any terms/phrases desired including course titles" sqref="V13:V1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="Keywords" prompt="All keywords (terms/phrases) must be separated by commas; use any terms/phrases desired including course titles" sqref="V2:W10">
+      <formula1>TrainingKeywords</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Keywords" prompt="All keywords (terms/phrases) must be separated by commas; use any terms/phrases desired including course titles" sqref="V12:V1048576">
       <formula1>TrainingKeywords</formula1>
     </dataValidation>
   </dataValidations>
@@ -4230,72 +4674,72 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -4321,107 +4765,107 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -4447,3032 +4891,3032 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A348" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A349" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A350" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A352" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A353" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A354" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A357" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A358" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A359" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A360" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A362" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A363" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A364" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A366" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A367" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A368" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A369" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A370" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A371" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A372" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A373" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A374" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A375" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A376" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A377" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A378" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A379" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A380" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A381" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A382" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A383" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A384" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A385" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A386" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A387" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A388" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A389" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A390" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A391" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A392" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A393" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A394" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A395" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A396" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A397" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A398" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A399" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A400" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A401" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A402" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A403" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A404" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A405" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A406" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A407" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A408" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A409" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A410" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A411" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A412" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A413" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A414" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A415" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A416" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A417" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A418" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A419" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A420" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A421" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A422" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A423" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A424" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A425" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A426" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A427" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A428" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A429" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A430" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A431" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A432" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A433" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A434" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A435" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A436" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A437" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A438" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A439" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A440" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A441" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A442" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A443" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A444" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A445" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A446" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A447" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A448" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A449" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A450" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A451" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A452" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A453" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A454" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A455" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A456" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A457" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A458" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A459" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A460" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A461" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A462" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A463" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A464" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A465" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A466" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A467" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A468" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A469" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A470" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A471" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A472" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A473" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A474" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A475" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A476" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A477" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A478" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A479" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A480" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A481" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A482" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A483" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A484" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A485" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A486" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A487" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A488" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A489" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A490" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A491" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A492" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A493" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A494" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A495" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A496" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A497" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A498" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A499" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A500" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A501" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A502" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A503" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A504" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A505" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A506" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A507" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A508" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A509" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A510" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A511" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A512" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A513" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A514" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A515" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A516" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A517" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A518" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A519" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A520" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A521" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A522" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A523" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A524" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A525" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A526" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A527" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A528" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A529" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A530" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A531" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A532" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A533" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A534" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A535" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A536" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A537" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A538" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A539" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A540" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A541" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A542" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A543" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A544" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A545" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A546" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A547" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A548" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A549" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A550" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A551" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A552" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A553" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A554" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A555" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A556" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A557" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A558" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A559" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A560" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A561" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A562" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A563" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A564" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A565" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A566" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A567" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A568" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A569" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A570" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A571" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A572" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A573" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A574" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A575" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A576" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A577" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A578" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A579" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A580" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A581" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A582" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A583" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A584" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A585" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A586" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A587" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A588" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A589" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A590" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A591" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A592" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A593" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A594" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A595" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A596" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A597" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A598" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A599" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A600" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A601" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A602" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A603" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A604" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A605" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A606" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -7498,62 +7942,62 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
   </sheetData>
@@ -7579,97 +8023,97 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
   </sheetData>
@@ -7695,210 +8139,210 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="17" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="17" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="17" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="17" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="17" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="17" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
   </sheetData>
